--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H2">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I2">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J2">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>7541.392602763677</v>
+        <v>7785.534654631519</v>
       </c>
       <c r="R2">
-        <v>7541.392602763677</v>
+        <v>31142.13861852607</v>
       </c>
       <c r="S2">
-        <v>0.1246150279214524</v>
+        <v>0.1171325207865999</v>
       </c>
       <c r="T2">
-        <v>0.1246150279214524</v>
+        <v>0.07427140304530346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H3">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I3">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J3">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>5103.503953354036</v>
+        <v>5618.295822800296</v>
       </c>
       <c r="R3">
-        <v>5103.503953354036</v>
+        <v>33709.77493680178</v>
       </c>
       <c r="S3">
-        <v>0.08433101432902355</v>
+        <v>0.08452664864293376</v>
       </c>
       <c r="T3">
-        <v>0.08433101432902355</v>
+        <v>0.08039500149833223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H4">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I4">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J4">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>3850.227998851229</v>
+        <v>3998.890482554949</v>
       </c>
       <c r="R4">
-        <v>3850.227998851229</v>
+        <v>23993.3428953297</v>
       </c>
       <c r="S4">
-        <v>0.06362170687214637</v>
+        <v>0.06016287170368687</v>
       </c>
       <c r="T4">
-        <v>0.06362170687214637</v>
+        <v>0.05722212152517678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H5">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I5">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J5">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>3620.174137627796</v>
+        <v>3767.266969418662</v>
       </c>
       <c r="R5">
-        <v>3620.174137627796</v>
+        <v>22603.60181651197</v>
       </c>
       <c r="S5">
-        <v>0.05982026463861379</v>
+        <v>0.05667812117971844</v>
       </c>
       <c r="T5">
-        <v>0.05982026463861379</v>
+        <v>0.05390770497023657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H6">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I6">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J6">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>5319.037106695502</v>
+        <v>5758.746018357988</v>
       </c>
       <c r="R6">
-        <v>5319.037106695502</v>
+        <v>34552.47611014792</v>
       </c>
       <c r="S6">
-        <v>0.08789251435115511</v>
+        <v>0.08663970653560613</v>
       </c>
       <c r="T6">
-        <v>0.08789251435115511</v>
+        <v>0.0824047735072176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H7">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I7">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J7">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>6395.406257636661</v>
+        <v>6618.536316860977</v>
       </c>
       <c r="R7">
-        <v>6395.406257636661</v>
+        <v>26474.14526744391</v>
       </c>
       <c r="S7">
-        <v>0.105678589001236</v>
+        <v>0.09957515791807574</v>
       </c>
       <c r="T7">
-        <v>0.105678589001236</v>
+        <v>0.0631386282594134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H8">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I8">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J8">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>533.081044337976</v>
+        <v>565.565181909676</v>
       </c>
       <c r="R8">
-        <v>533.081044337976</v>
+        <v>3393.391091458056</v>
       </c>
       <c r="S8">
-        <v>0.008808705861597693</v>
+        <v>0.008508866553795801</v>
       </c>
       <c r="T8">
-        <v>0.008808705861597693</v>
+        <v>0.008092954711019519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H9">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I9">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J9">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>360.7531606615936</v>
+        <v>408.130287770816</v>
       </c>
       <c r="R9">
-        <v>360.7531606615936</v>
+        <v>3673.172589937344</v>
       </c>
       <c r="S9">
-        <v>0.005961135768494804</v>
+        <v>0.006140275721143608</v>
       </c>
       <c r="T9">
-        <v>0.005961135768494804</v>
+        <v>0.008760210248370847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H10">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I10">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J10">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>272.1624069558133</v>
+        <v>290.491703335704</v>
       </c>
       <c r="R10">
-        <v>272.1624069558133</v>
+        <v>2614.425330021336</v>
       </c>
       <c r="S10">
-        <v>0.004497249742645599</v>
+        <v>0.004370416032900515</v>
       </c>
       <c r="T10">
-        <v>0.004497249742645599</v>
+        <v>0.006235186343379502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H11">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I11">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J11">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>255.9005095775985</v>
+        <v>273.6658589778534</v>
       </c>
       <c r="R11">
-        <v>255.9005095775985</v>
+        <v>2462.99273080068</v>
       </c>
       <c r="S11">
-        <v>0.004228535872066921</v>
+        <v>0.004117273037406223</v>
       </c>
       <c r="T11">
-        <v>0.004228535872066921</v>
+        <v>0.005874032225202645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H12">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I12">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J12">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>375.9886277065821</v>
+        <v>418.333021934048</v>
       </c>
       <c r="R12">
-        <v>375.9886277065821</v>
+        <v>3764.997197406432</v>
       </c>
       <c r="S12">
-        <v>0.006212888760443779</v>
+        <v>0.006293774745227201</v>
       </c>
       <c r="T12">
-        <v>0.006212888760443779</v>
+        <v>0.008979204278111512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H13">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I13">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J13">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>452.0743086014631</v>
+        <v>480.790833522844</v>
       </c>
       <c r="R13">
-        <v>452.0743086014631</v>
+        <v>2884.745001137064</v>
       </c>
       <c r="S13">
-        <v>0.007470139211197885</v>
+        <v>0.007233445716938577</v>
       </c>
       <c r="T13">
-        <v>0.007470139211197885</v>
+        <v>0.006879876211677968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H14">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I14">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J14">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>5857.229365145138</v>
+        <v>16.83680336305167</v>
       </c>
       <c r="R14">
-        <v>5857.229365145138</v>
+        <v>101.02082017831</v>
       </c>
       <c r="S14">
-        <v>0.09678567863081787</v>
+        <v>0.0002533078725337565</v>
       </c>
       <c r="T14">
-        <v>0.09678567863081787</v>
+        <v>0.0002409262299978001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H15">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I15">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J15">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>3963.776293753088</v>
+        <v>12.14998663549333</v>
       </c>
       <c r="R15">
-        <v>3963.776293753088</v>
+        <v>109.34987971944</v>
       </c>
       <c r="S15">
-        <v>0.06549799480528529</v>
+        <v>0.0001827952254110402</v>
       </c>
       <c r="T15">
-        <v>0.06549799480528529</v>
+        <v>0.0002607903422781171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H16">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I16">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J16">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>2990.385156331864</v>
+        <v>8.647900974290001</v>
       </c>
       <c r="R16">
-        <v>2990.385156331864</v>
+        <v>77.83110876861001</v>
       </c>
       <c r="S16">
-        <v>0.04941354327788596</v>
+        <v>0.0001301067281267433</v>
       </c>
       <c r="T16">
-        <v>0.04941354327788596</v>
+        <v>0.0001856207025351002</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H17">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I17">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J17">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>2811.707516471407</v>
+        <v>8.146997732838889</v>
       </c>
       <c r="R17">
-        <v>2811.707516471407</v>
+        <v>73.32297959555001</v>
       </c>
       <c r="S17">
-        <v>0.04646104892399299</v>
+        <v>0.0001225706934234048</v>
       </c>
       <c r="T17">
-        <v>0.04646104892399299</v>
+        <v>0.0001748691904795523</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H18">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I18">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J18">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>4131.176027649893</v>
+        <v>12.45372073081333</v>
       </c>
       <c r="R18">
-        <v>4131.176027649893</v>
+        <v>112.08348657732</v>
       </c>
       <c r="S18">
-        <v>0.06826413146099385</v>
+        <v>0.0001873648717888268</v>
       </c>
       <c r="T18">
-        <v>0.06826413146099385</v>
+        <v>0.0002673097666245309</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H19">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I19">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J19">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>4967.167644943293</v>
+        <v>14.31308181923167</v>
       </c>
       <c r="R19">
-        <v>4967.167644943293</v>
+        <v>85.87849091539</v>
       </c>
       <c r="S19">
-        <v>0.08207817406805024</v>
+        <v>0.0002153387568205239</v>
       </c>
       <c r="T19">
-        <v>0.08207817406805024</v>
+        <v>0.0002048130377245505</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H20">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I20">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J20">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>406.6597185858525</v>
+        <v>44.2724378053935</v>
       </c>
       <c r="R20">
-        <v>406.6597185858525</v>
+        <v>265.634626832361</v>
       </c>
       <c r="S20">
-        <v>0.006719702163170089</v>
+        <v>0.0006660740041056487</v>
       </c>
       <c r="T20">
-        <v>0.006719702163170089</v>
+        <v>0.0006335164284612904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H21">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I21">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J21">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>275.1997662490313</v>
+        <v>31.948435582296</v>
       </c>
       <c r="R21">
-        <v>275.1997662490313</v>
+        <v>287.535920240664</v>
       </c>
       <c r="S21">
-        <v>0.004547439493142494</v>
+        <v>0.0004806607331349356</v>
       </c>
       <c r="T21">
-        <v>0.004547439493142494</v>
+        <v>0.0006857491864573599</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H22">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I22">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J22">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>207.6185019104323</v>
+        <v>22.739688156699</v>
       </c>
       <c r="R22">
-        <v>207.6185019104323</v>
+        <v>204.657193410291</v>
       </c>
       <c r="S22">
-        <v>0.00343071721303798</v>
+        <v>0.000342116131242294</v>
       </c>
       <c r="T22">
-        <v>0.00343071721303798</v>
+        <v>0.000488090335865821</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H23">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I23">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J23">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>195.2131487624705</v>
+        <v>21.422561198245</v>
       </c>
       <c r="R23">
-        <v>195.2131487624705</v>
+        <v>192.803050784205</v>
       </c>
       <c r="S23">
-        <v>0.00322572941962404</v>
+        <v>0.0003223000996293686</v>
       </c>
       <c r="T23">
-        <v>0.00322572941962404</v>
+        <v>0.0004598191944543962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H24">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I24">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J24">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>286.8221092433003</v>
+        <v>32.74710552898799</v>
       </c>
       <c r="R24">
-        <v>286.8221092433003</v>
+        <v>294.723949760892</v>
       </c>
       <c r="S24">
-        <v>0.004739488717076647</v>
+        <v>0.000492676635482359</v>
       </c>
       <c r="T24">
-        <v>0.004739488717076647</v>
+        <v>0.0007028920373109233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.269007</v>
+      </c>
+      <c r="H25">
+        <v>0.807021</v>
+      </c>
+      <c r="I25">
+        <v>0.002870061675042444</v>
+      </c>
+      <c r="J25">
+        <v>0.003508623836023136</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>37.6363025083515</v>
+      </c>
+      <c r="R25">
+        <v>225.817815050109</v>
+      </c>
+      <c r="S25">
+        <v>0.0005662340714478382</v>
+      </c>
+      <c r="T25">
+        <v>0.0005385566534733456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H26">
+        <v>116.236845</v>
+      </c>
+      <c r="I26">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J26">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>6376.647560543856</v>
+      </c>
+      <c r="R26">
+        <v>38259.88536326314</v>
+      </c>
+      <c r="S26">
+        <v>0.09593596792866312</v>
+      </c>
+      <c r="T26">
+        <v>0.09124663534159408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H27">
+        <v>116.236845</v>
+      </c>
+      <c r="I27">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J27">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>4601.596928421719</v>
+      </c>
+      <c r="R27">
+        <v>41414.37235579547</v>
+      </c>
+      <c r="S27">
+        <v>0.06923052452785226</v>
+      </c>
+      <c r="T27">
+        <v>0.09876982370362138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H28">
+        <v>116.236845</v>
+      </c>
+      <c r="I28">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J28">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>3275.242661118555</v>
+      </c>
+      <c r="R28">
+        <v>29477.183950067</v>
+      </c>
+      <c r="S28">
+        <v>0.0492756690584386</v>
+      </c>
+      <c r="T28">
+        <v>0.07030062503458197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H29">
+        <v>116.236845</v>
+      </c>
+      <c r="I29">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J29">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>3085.534237031524</v>
+      </c>
+      <c r="R29">
+        <v>27769.80813328372</v>
+      </c>
+      <c r="S29">
+        <v>0.04642152648333001</v>
+      </c>
+      <c r="T29">
+        <v>0.06622867612344722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H30">
+        <v>116.236845</v>
+      </c>
+      <c r="I30">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J30">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>4716.630954549659</v>
+      </c>
+      <c r="R30">
+        <v>42449.67859094693</v>
+      </c>
+      <c r="S30">
+        <v>0.07096119892008318</v>
+      </c>
+      <c r="T30">
+        <v>0.1012389427197607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H31">
+        <v>116.236845</v>
+      </c>
+      <c r="I31">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J31">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>5420.831751635166</v>
+      </c>
+      <c r="R31">
+        <v>32524.990509811</v>
+      </c>
+      <c r="S31">
+        <v>0.08155582320237179</v>
+      </c>
+      <c r="T31">
+        <v>0.07756938946260379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.8689935</v>
+      </c>
+      <c r="H32">
+        <v>7.737987</v>
+      </c>
+      <c r="I32">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J32">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>636.7483898122417</v>
+      </c>
+      <c r="R32">
+        <v>2546.993559248967</v>
+      </c>
+      <c r="S32">
+        <v>0.009579810162574686</v>
+      </c>
+      <c r="T32">
+        <v>0.006074367194558625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.8689935</v>
+      </c>
+      <c r="H33">
+        <v>7.737987</v>
+      </c>
+      <c r="I33">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J33">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>459.498413063868</v>
+      </c>
+      <c r="R33">
+        <v>2756.990478383208</v>
+      </c>
+      <c r="S33">
+        <v>0.006913103570555044</v>
+      </c>
+      <c r="T33">
+        <v>0.006575192330890556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.8689935</v>
+      </c>
+      <c r="H34">
+        <v>7.737987</v>
+      </c>
+      <c r="I34">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J34">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>327.0535921752796</v>
+      </c>
+      <c r="R34">
+        <v>1962.321553051677</v>
+      </c>
+      <c r="S34">
+        <v>0.004920485667739436</v>
+      </c>
+      <c r="T34">
+        <v>0.00467997322715934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.47101192974295</v>
-      </c>
-      <c r="H25">
-        <v>2.47101192974295</v>
-      </c>
-      <c r="I25">
-        <v>0.02836165650289956</v>
-      </c>
-      <c r="J25">
-        <v>0.02836165650289956</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>344.8639059077275</v>
-      </c>
-      <c r="R25">
-        <v>344.8639059077275</v>
-      </c>
-      <c r="S25">
-        <v>0.00569857949684831</v>
-      </c>
-      <c r="T25">
-        <v>0.00569857949684831</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.8689935</v>
+      </c>
+      <c r="H35">
+        <v>7.737987</v>
+      </c>
+      <c r="I35">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J35">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>308.1100121162725</v>
+      </c>
+      <c r="R35">
+        <v>1848.660072697635</v>
+      </c>
+      <c r="S35">
+        <v>0.004635481569310017</v>
+      </c>
+      <c r="T35">
+        <v>0.004408900076997489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.8689935</v>
+      </c>
+      <c r="H36">
+        <v>7.737987</v>
+      </c>
+      <c r="I36">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J36">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>470.9852845296539</v>
+      </c>
+      <c r="R36">
+        <v>2825.911707177924</v>
+      </c>
+      <c r="S36">
+        <v>0.007085922300472168</v>
+      </c>
+      <c r="T36">
+        <v>0.006739563712859319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.8689935</v>
+      </c>
+      <c r="H37">
+        <v>7.737987</v>
+      </c>
+      <c r="I37">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J37">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>541.3041659467808</v>
+      </c>
+      <c r="R37">
+        <v>2165.216663787123</v>
+      </c>
+      <c r="S37">
+        <v>0.008143862211430267</v>
+      </c>
+      <c r="T37">
+        <v>0.005163861142820638</v>
       </c>
     </row>
   </sheetData>
